--- a/Team-Data/2013-14/11-7-2013-14.xlsx
+++ b/Team-Data/2013-14/11-7-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,103 +733,103 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>83.59999999999999</v>
+        <v>81</v>
       </c>
       <c r="K2" t="n">
-        <v>0.467</v>
+        <v>0.469</v>
       </c>
       <c r="L2" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.368</v>
+        <v>0.385</v>
       </c>
       <c r="O2" t="n">
-        <v>18.6</v>
+        <v>20</v>
       </c>
       <c r="P2" t="n">
-        <v>27.4</v>
+        <v>29.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.679</v>
+        <v>0.678</v>
       </c>
       <c r="R2" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="S2" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="T2" t="n">
-        <v>40.8</v>
+        <v>39.5</v>
       </c>
       <c r="U2" t="n">
-        <v>26.8</v>
+        <v>25.8</v>
       </c>
       <c r="V2" t="n">
-        <v>13.6</v>
+        <v>14.3</v>
       </c>
       <c r="W2" t="n">
         <v>10.8</v>
       </c>
       <c r="X2" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.4</v>
+        <v>17.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>24.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.2</v>
+        <v>104.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="n">
         <v>5</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>8</v>
@@ -771,52 +838,52 @@
         <v>8</v>
       </c>
       <c r="AM2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN2" t="n">
         <v>11</v>
       </c>
-      <c r="AN2" t="n">
-        <v>14</v>
-      </c>
       <c r="AO2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AQ2" t="n">
         <v>28</v>
       </c>
       <c r="AR2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW2" t="n">
         <v>1</v>
       </c>
       <c r="AX2" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-4</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>24</v>
@@ -935,7 +1002,7 @@
         <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH3" t="n">
         <v>5</v>
@@ -944,7 +1011,7 @@
         <v>25</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>12</v>
@@ -959,13 +1026,13 @@
         <v>25</v>
       </c>
       <c r="AO3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>24</v>
@@ -989,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -1108,22 +1175,22 @@
         <v>-2</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
         <v>5</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="n">
         <v>24</v>
@@ -1138,16 +1205,16 @@
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
       </c>
       <c r="AP4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR4" t="n">
         <v>23</v>
@@ -1156,16 +1223,16 @@
         <v>18</v>
       </c>
       <c r="AT4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX4" t="n">
         <v>6</v>
@@ -1177,10 +1244,10 @@
         <v>30</v>
       </c>
       <c r="BA4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-4.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF5" t="n">
         <v>6</v>
       </c>
-      <c r="AF5" t="n">
-        <v>5</v>
-      </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
@@ -1311,7 +1378,7 @@
         <v>26</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
@@ -1332,34 +1399,34 @@
         <v>30</v>
       </c>
       <c r="AR5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS5" t="n">
         <v>24</v>
       </c>
       <c r="AT5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU5" t="n">
         <v>24</v>
       </c>
       <c r="AV5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>11</v>
       </c>
       <c r="BA5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>-7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
         <v>24</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
         <v>24</v>
@@ -1490,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>28</v>
       </c>
       <c r="AM6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN6" t="n">
         <v>28</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
@@ -1520,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU6" t="n">
         <v>15</v>
@@ -1529,7 +1596,7 @@
         <v>22</v>
       </c>
       <c r="AW6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX6" t="n">
         <v>20</v>
@@ -1547,7 +1614,7 @@
         <v>27</v>
       </c>
       <c r="BC6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-4.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG7" t="n">
         <v>19</v>
@@ -1672,34 +1739,34 @@
         <v>24</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
         <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="n">
         <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
         <v>25</v>
       </c>
       <c r="AQ7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS7" t="n">
         <v>13</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>14</v>
       </c>
       <c r="AT7" t="n">
         <v>14</v>
@@ -1708,7 +1775,7 @@
         <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW7" t="n">
         <v>6</v>
@@ -1723,7 +1790,7 @@
         <v>23</v>
       </c>
       <c r="BA7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB7" t="n">
         <v>26</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF8" t="n">
         <v>6</v>
       </c>
-      <c r="AF8" t="n">
-        <v>5</v>
-      </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
         <v>5</v>
@@ -1863,22 +1930,22 @@
         <v>6</v>
       </c>
       <c r="AM8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
         <v>6</v>
       </c>
       <c r="AP8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
       </c>
       <c r="AR8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AS8" t="n">
         <v>15</v>
@@ -1890,7 +1957,7 @@
         <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW8" t="n">
         <v>7</v>
@@ -1902,7 +1969,7 @@
         <v>9</v>
       </c>
       <c r="AZ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>20</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -1940,127 +2007,127 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>36.8</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
-        <v>86.8</v>
+        <v>87</v>
       </c>
       <c r="K9" t="n">
-        <v>0.424</v>
+        <v>0.402</v>
       </c>
       <c r="L9" t="n">
-        <v>8.5</v>
+        <v>6.7</v>
       </c>
       <c r="M9" t="n">
-        <v>19.3</v>
+        <v>17.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.442</v>
+        <v>0.385</v>
       </c>
       <c r="O9" t="n">
-        <v>15.3</v>
+        <v>16.7</v>
       </c>
       <c r="P9" t="n">
-        <v>22</v>
+        <v>23.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.704</v>
       </c>
       <c r="R9" t="n">
-        <v>12</v>
+        <v>12.7</v>
       </c>
       <c r="S9" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="T9" t="n">
-        <v>46.5</v>
+        <v>47</v>
       </c>
       <c r="U9" t="n">
-        <v>20.8</v>
+        <v>18.3</v>
       </c>
       <c r="V9" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W9" t="n">
         <v>4.3</v>
       </c>
       <c r="X9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7</v>
       </c>
-      <c r="Y9" t="n">
-        <v>7.5</v>
-      </c>
       <c r="Z9" t="n">
-        <v>20.3</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM9" t="n">
         <v>24</v>
       </c>
-      <c r="AB9" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>-5.8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="AN9" t="n">
         <v>11</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AO9" t="n">
         <v>20</v>
       </c>
-      <c r="AN9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>25</v>
-      </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS9" t="n">
         <v>7</v>
@@ -2069,10 +2136,10 @@
         <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AV9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW9" t="n">
         <v>30</v>
@@ -2081,19 +2148,19 @@
         <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA9" t="n">
         <v>7</v>
       </c>
       <c r="BB9" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="BC9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -2200,25 +2267,25 @@
         <v>2.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK10" t="n">
         <v>16</v>
@@ -2236,7 +2303,7 @@
         <v>7</v>
       </c>
       <c r="AP10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ10" t="n">
         <v>20</v>
@@ -2251,7 +2318,7 @@
         <v>16</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV10" t="n">
         <v>25</v>
@@ -2269,13 +2336,13 @@
         <v>19</v>
       </c>
       <c r="BA10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB10" t="n">
         <v>13</v>
       </c>
       <c r="BC10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>12.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2400,22 +2467,22 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL11" t="n">
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN11" t="n">
         <v>2</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
@@ -2454,7 +2521,7 @@
         <v>18</v>
       </c>
       <c r="BB11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -2486,82 +2553,82 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.667</v>
+        <v>0.8</v>
       </c>
       <c r="H12" t="n">
         <v>48</v>
       </c>
       <c r="I12" t="n">
-        <v>35.8</v>
+        <v>37.2</v>
       </c>
       <c r="J12" t="n">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.478</v>
+        <v>0.499</v>
       </c>
       <c r="L12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.327</v>
+        <v>0.341</v>
       </c>
       <c r="O12" t="n">
-        <v>27.7</v>
+        <v>26.6</v>
       </c>
       <c r="P12" t="n">
-        <v>39.8</v>
+        <v>37.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.695</v>
+        <v>0.711</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.8</v>
       </c>
       <c r="S12" t="n">
         <v>35.8</v>
       </c>
       <c r="T12" t="n">
-        <v>47</v>
+        <v>47.6</v>
       </c>
       <c r="U12" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="V12" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="W12" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="X12" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.8</v>
+        <v>21.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>29.3</v>
+        <v>28</v>
       </c>
       <c r="AB12" t="n">
-        <v>107.5</v>
+        <v>109.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2570,31 +2637,31 @@
         <v>2</v>
       </c>
       <c r="AF12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2603,10 +2670,10 @@
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
@@ -2615,22 +2682,22 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV12" t="n">
         <v>26</v>
       </c>
       <c r="AW12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX12" t="n">
         <v>18</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>15</v>
       </c>
       <c r="AY12" t="n">
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2639,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2770,22 +2837,22 @@
         <v>14</v>
       </c>
       <c r="AL13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM13" t="n">
         <v>15</v>
       </c>
       <c r="AN13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO13" t="n">
         <v>11</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AP13" t="n">
         <v>10</v>
       </c>
-      <c r="AP13" t="n">
-        <v>11</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR13" t="n">
         <v>24</v>
@@ -2812,13 +2879,13 @@
         <v>11</v>
       </c>
       <c r="AZ13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC13" t="n">
         <v>2</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -2850,112 +2917,112 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.8</v>
+        <v>40.6</v>
       </c>
       <c r="J14" t="n">
-        <v>83.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.475</v>
       </c>
       <c r="L14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>26</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="O14" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="P14" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="R14" t="n">
+        <v>12</v>
+      </c>
+      <c r="S14" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="U14" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="V14" t="n">
+        <v>15</v>
+      </c>
+      <c r="W14" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="M14" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="O14" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="P14" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.734</v>
-      </c>
-      <c r="R14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="T14" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="U14" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="V14" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="W14" t="n">
-        <v>9</v>
-      </c>
       <c r="X14" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Z14" t="n">
-        <v>26.3</v>
+        <v>25.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>110.5</v>
+        <v>113.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF14" t="n">
         <v>6</v>
       </c>
-      <c r="AF14" t="n">
-        <v>17</v>
-      </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>7</v>
       </c>
       <c r="AM14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN14" t="n">
         <v>15</v>
@@ -2964,46 +3031,46 @@
         <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS14" t="n">
         <v>17</v>
       </c>
       <c r="AT14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AW14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AY14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ14" t="n">
         <v>28</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -3032,94 +3099,94 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J15" t="n">
-        <v>88.8</v>
+        <v>88.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.413</v>
+        <v>0.417</v>
       </c>
       <c r="L15" t="n">
-        <v>11.2</v>
+        <v>10.2</v>
       </c>
       <c r="M15" t="n">
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="N15" t="n">
-        <v>0.406</v>
+        <v>0.392</v>
       </c>
       <c r="O15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P15" t="n">
-        <v>22</v>
+        <v>23.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="R15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="T15" t="n">
-        <v>45.3</v>
+        <v>45</v>
       </c>
       <c r="U15" t="n">
-        <v>23</v>
+        <v>22.4</v>
       </c>
       <c r="V15" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="W15" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="X15" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.7</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.5</v>
+        <v>100.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.7</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
         <v>5</v>
@@ -3131,55 +3198,55 @@
         <v>1</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM15" t="n">
         <v>3</v>
       </c>
-      <c r="AM15" t="n">
-        <v>2</v>
-      </c>
       <c r="AN15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
         <v>18</v>
       </c>
       <c r="AR15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AS15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT15" t="n">
         <v>8</v>
       </c>
       <c r="AU15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AW15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX15" t="n">
         <v>9</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ15" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="BA15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>-4.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG16" t="n">
         <v>19</v>
@@ -3322,7 +3389,7 @@
         <v>28</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>18</v>
@@ -3334,13 +3401,13 @@
         <v>8</v>
       </c>
       <c r="AR16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS16" t="n">
         <v>20</v>
       </c>
       <c r="AT16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU16" t="n">
         <v>13</v>
@@ -3349,22 +3416,22 @@
         <v>20</v>
       </c>
       <c r="AW16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX16" t="n">
         <v>28</v>
       </c>
       <c r="AY16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA16" t="n">
         <v>21</v>
       </c>
       <c r="BB16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC16" t="n">
         <v>25</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.667</v>
+        <v>0.6</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
@@ -3414,61 +3481,61 @@
         <v>37.8</v>
       </c>
       <c r="J17" t="n">
-        <v>74.7</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.507</v>
+        <v>0.501</v>
       </c>
       <c r="L17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M17" t="n">
-        <v>23.3</v>
+        <v>24.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.429</v>
+        <v>0.444</v>
       </c>
       <c r="O17" t="n">
-        <v>18.7</v>
+        <v>18.2</v>
       </c>
       <c r="P17" t="n">
-        <v>25.3</v>
+        <v>23.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.737</v>
+        <v>0.765</v>
       </c>
       <c r="R17" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="S17" t="n">
-        <v>26.5</v>
+        <v>27.4</v>
       </c>
       <c r="T17" t="n">
-        <v>33.5</v>
+        <v>34.2</v>
       </c>
       <c r="U17" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="V17" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="W17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X17" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
-        <v>25.7</v>
+        <v>24.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.3</v>
+        <v>104.8</v>
       </c>
       <c r="AC17" t="n">
         <v>5.2</v>
@@ -3477,13 +3544,13 @@
         <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH17" t="n">
         <v>5</v>
@@ -3492,28 +3559,28 @@
         <v>10</v>
       </c>
       <c r="AJ17" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AK17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM17" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AN17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AP17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>10</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3531,10 +3598,10 @@
         <v>18</v>
       </c>
       <c r="AW17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3543,13 +3610,13 @@
         <v>25</v>
       </c>
       <c r="BA17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -3656,22 +3723,22 @@
         <v>-0.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
         <v>5</v>
       </c>
       <c r="AI18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ18" t="n">
         <v>25</v>
@@ -3680,19 +3747,19 @@
         <v>13</v>
       </c>
       <c r="AL18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
         <v>6</v>
@@ -3713,22 +3780,22 @@
         <v>7</v>
       </c>
       <c r="AW18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY18" t="n">
         <v>6</v>
       </c>
       <c r="AZ18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA18" t="n">
         <v>13</v>
       </c>
       <c r="BB18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -3838,34 +3905,34 @@
         <v>3.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF19" t="n">
         <v>6</v>
       </c>
-      <c r="AF19" t="n">
-        <v>5</v>
-      </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH19" t="n">
         <v>2</v>
       </c>
       <c r="AI19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ19" t="n">
         <v>2</v>
       </c>
       <c r="AK19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN19" t="n">
         <v>23</v>
@@ -3889,10 +3956,10 @@
         <v>12</v>
       </c>
       <c r="AU19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW19" t="n">
         <v>4</v>
@@ -3904,7 +3971,7 @@
         <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG20" t="n">
         <v>19</v>
@@ -4035,10 +4102,10 @@
         <v>5</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK20" t="n">
         <v>22</v>
@@ -4053,22 +4120,22 @@
         <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ20" t="n">
         <v>5</v>
       </c>
       <c r="AR20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
         <v>20</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU20" t="n">
         <v>17</v>
@@ -4083,16 +4150,16 @@
         <v>2</v>
       </c>
       <c r="AY20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA20" t="n">
         <v>22</v>
       </c>
       <c r="BB20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC20" t="n">
         <v>13</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-2</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
         <v>24</v>
       </c>
       <c r="AF21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
         <v>24</v>
@@ -4217,19 +4284,19 @@
         <v>5</v>
       </c>
       <c r="AI21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
         <v>20</v>
       </c>
       <c r="AL21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN21" t="n">
         <v>24</v>
@@ -4250,10 +4317,10 @@
         <v>27</v>
       </c>
       <c r="AT21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV21" t="n">
         <v>16</v>
@@ -4262,7 +4329,7 @@
         <v>3</v>
       </c>
       <c r="AX21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY21" t="n">
         <v>5</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -4384,25 +4451,25 @@
         <v>1.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH22" t="n">
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="n">
         <v>21</v>
@@ -4420,7 +4487,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ22" t="n">
         <v>3</v>
@@ -4444,7 +4511,7 @@
         <v>8</v>
       </c>
       <c r="AX22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -4566,16 +4633,16 @@
         <v>6.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF23" t="n">
         <v>6</v>
       </c>
-      <c r="AF23" t="n">
-        <v>5</v>
-      </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH23" t="n">
         <v>2</v>
@@ -4584,19 +4651,19 @@
         <v>3</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK23" t="n">
         <v>7</v>
       </c>
       <c r="AL23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM23" t="n">
         <v>18</v>
       </c>
       <c r="AN23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4608,7 +4675,7 @@
         <v>24</v>
       </c>
       <c r="AR23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -4617,13 +4684,13 @@
         <v>1</v>
       </c>
       <c r="AU23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV23" t="n">
         <v>19</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX23" t="n">
         <v>10</v>
@@ -4632,10 +4699,10 @@
         <v>30</v>
       </c>
       <c r="AZ23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB23" t="n">
         <v>9</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>-4</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF24" t="n">
         <v>6</v>
       </c>
-      <c r="AF24" t="n">
-        <v>5</v>
-      </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH24" t="n">
         <v>5</v>
@@ -4772,25 +4839,25 @@
         <v>6</v>
       </c>
       <c r="AL24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM24" t="n">
         <v>14</v>
       </c>
       <c r="AN24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ24" t="n">
         <v>29</v>
       </c>
       <c r="AR24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS24" t="n">
         <v>5</v>
@@ -4814,13 +4881,13 @@
         <v>11</v>
       </c>
       <c r="AZ24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA24" t="n">
         <v>22</v>
       </c>
       <c r="BB24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>2.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF25" t="n">
         <v>6</v>
       </c>
-      <c r="AF25" t="n">
-        <v>5</v>
-      </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH25" t="n">
         <v>5</v>
@@ -4948,16 +5015,16 @@
         <v>11</v>
       </c>
       <c r="AJ25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK25" t="n">
         <v>10</v>
       </c>
       <c r="AL25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM25" t="n">
         <v>8</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>7</v>
       </c>
       <c r="AN25" t="n">
         <v>16</v>
@@ -4969,10 +5036,10 @@
         <v>27</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS25" t="n">
         <v>8</v>
@@ -4981,7 +5048,7 @@
         <v>11</v>
       </c>
       <c r="AU25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV25" t="n">
         <v>21</v>
@@ -4996,7 +5063,7 @@
         <v>20</v>
       </c>
       <c r="AZ25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
         <v>29</v>
@@ -5005,7 +5072,7 @@
         <v>16</v>
       </c>
       <c r="BC25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>-0.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
         <v>5</v>
@@ -5136,16 +5203,16 @@
         <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM26" t="n">
         <v>6</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
         <v>22</v>
@@ -5154,13 +5221,13 @@
         <v>16</v>
       </c>
       <c r="AR26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS26" t="n">
         <v>23</v>
       </c>
       <c r="AT26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU26" t="n">
         <v>9</v>
@@ -5184,7 +5251,7 @@
         <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC26" t="n">
         <v>16</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-5.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
@@ -5312,16 +5379,16 @@
         <v>28</v>
       </c>
       <c r="AJ27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN27" t="n">
         <v>21</v>
@@ -5330,34 +5397,34 @@
         <v>7</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
         <v>7</v>
       </c>
       <c r="AR27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS27" t="n">
         <v>25</v>
       </c>
       <c r="AT27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU27" t="n">
         <v>23</v>
       </c>
       <c r="AV27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX27" t="n">
         <v>20</v>
       </c>
       <c r="AY27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ27" t="n">
         <v>27</v>
@@ -5366,7 +5433,7 @@
         <v>16</v>
       </c>
       <c r="BB27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>2.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5506,7 +5573,7 @@
         <v>25</v>
       </c>
       <c r="AN28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,31 +5582,31 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS28" t="n">
         <v>10</v>
       </c>
       <c r="AT28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ28" t="n">
         <v>6</v>
@@ -5551,7 +5618,7 @@
         <v>14</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>-1</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG29" t="n">
         <v>19</v>
@@ -5673,7 +5740,7 @@
         <v>5</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="n">
         <v>22</v>
@@ -5694,7 +5761,7 @@
         <v>17</v>
       </c>
       <c r="AP29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ29" t="n">
         <v>22</v>
@@ -5721,16 +5788,16 @@
         <v>28</v>
       </c>
       <c r="AY29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA29" t="n">
         <v>12</v>
       </c>
       <c r="BB29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC29" t="n">
         <v>17</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-8.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF30" t="n">
         <v>30</v>
       </c>
       <c r="AG30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH30" t="n">
         <v>5</v>
@@ -5858,7 +5925,7 @@
         <v>27</v>
       </c>
       <c r="AJ30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK30" t="n">
         <v>25</v>
@@ -5867,19 +5934,19 @@
         <v>30</v>
       </c>
       <c r="AM30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN30" t="n">
         <v>30</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP30" t="n">
         <v>9</v>
       </c>
       <c r="AQ30" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR30" t="n">
         <v>1</v>
@@ -5888,7 +5955,7 @@
         <v>20</v>
       </c>
       <c r="AT30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU30" t="n">
         <v>25</v>
@@ -5897,7 +5964,7 @@
         <v>29</v>
       </c>
       <c r="AW30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX30" t="n">
         <v>23</v>
@@ -5909,7 +5976,7 @@
         <v>23</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-3.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>24</v>
       </c>
       <c r="AF31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG31" t="n">
         <v>24</v>
@@ -6037,7 +6104,7 @@
         <v>5</v>
       </c>
       <c r="AI31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ31" t="n">
         <v>2</v>
@@ -6091,7 +6158,7 @@
         <v>19</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-7-2013-14</t>
+          <t>2013-11-07</t>
         </is>
       </c>
     </row>
